--- a/outputs/ML_Results/dist_LR/Magdeburg.xlsx
+++ b/outputs/ML_Results/dist_LR/Magdeburg.xlsx
@@ -7,36 +7,36 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ42267105" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ42461126" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ42668149" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ42872178" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ43069203" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ43275227" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ43482248" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ43685275" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ43883290" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ44088314" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ44288894" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ44493922" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ44708985" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ44923176" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ45126344" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ45332882" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ45540906" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ45746932" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ45957578" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ46163606" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ46367963" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ46567988" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ46780653" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ46992678" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ47203833" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ47420365" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ47622393" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ47830482" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ48033031" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ48243060" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ12907143" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ13109003" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ13364027" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ13640579" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ13913182" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ14172226" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ14416751" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ14671432" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ14923992" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ15192799" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ15455335" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ15734916" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ16049363" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ16478982" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ16750526" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ17017297" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ17311384" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ17657499" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ17930693" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ18191849" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ18453832" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ18691225" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ18935997" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ19195541" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ19464076" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ19718891" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ19972220" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ20220757" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ20464910" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ20723651" sheetId="30" state="visible" r:id="rId30"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Magdeburg.xlsx
+++ b/outputs/ML_Results/dist_LR/Magdeburg.xlsx
@@ -7,36 +7,36 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ12907143" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ13109003" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ13364027" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ13640579" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ13913182" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ14172226" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ14416751" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ14671432" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ14923992" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ15192799" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ15455335" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ15734916" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ16049363" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ16478982" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ16750526" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ17017297" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ17311384" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ17657499" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ17930693" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ18191849" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ18453832" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ18691225" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ18935997" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ19195541" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ19464076" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ19718891" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ19972220" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ20220757" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ20464910" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ20723651" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ42858302" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ43034502" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ43362110" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ43558219" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ43720325" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ43890944" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ44065315" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ44231412" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ44395309" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ44562648" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ44733656" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ44904594" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ45081570" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ45253951" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ45428063" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ45602576" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ45780097" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ45964106" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ46162215" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ46344136" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ46559080" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ46729074" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ46901548" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ47098530" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ47303944" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ47491424" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ47666656" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ47838393" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ48003824" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ48176359" sheetId="30" state="visible" r:id="rId30"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1148.200168158151</v>
+        <v>1181.624098109003</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-188.5960784474714</v>
+        <v>-181.5941779923623</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244.372935044619</v>
+        <v>208.8379114156564</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5331565098492801</v>
+        <v>-0.5491321936600122</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001868693644176827</v>
+        <v>0.0001871643399941286</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>132.5473446272945</v>
+        <v>134.0122331843442</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.3991037477576072</v>
+        <v>-0.01272236054498421</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3209.332514594018</v>
+        <v>-3291.680634991939</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -575,42 +575,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>843.4776718233734</v>
+        <v>845.6802874912155</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>555.1023811796758</v>
+        <v>812.4016832777647</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>795.4908820794353</v>
+        <v>-15.54461918017296</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-16.80301364364777</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -623,7 +612,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,7 +644,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3438.007684777811</v>
+        <v>-3702.407448003949</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -666,7 +655,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-200.6071306518784</v>
+        <v>-150.1310491276381</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -677,7 +666,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1607.074956712297</v>
+        <v>1671.343234454274</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -688,7 +677,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6062883919388646</v>
+        <v>-0.6544000076915073</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -699,7 +688,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0006267975223870378</v>
+        <v>0.0006698861522281352</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -710,7 +699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>284.6880604399411</v>
+        <v>298.9930486271155</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -721,7 +710,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-16.4265265043038</v>
+        <v>-16.21873099964709</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -732,7 +721,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3882.103956523368</v>
+        <v>-3976.087848362391</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -743,42 +732,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1850.460271482505</v>
+        <v>1994.050869021958</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1290.758067381446</v>
+        <v>-834.9859691595623</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-799.9294841647443</v>
+        <v>-122.2847163798979</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-111.3837585712772</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -791,7 +769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -823,7 +801,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2656.652803324674</v>
+        <v>2606.371353364451</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -834,7 +812,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1250.244371027931</v>
+        <v>1242.036563052839</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -845,7 +823,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-63.7778938566164</v>
+        <v>-80.41324947612111</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -856,7 +834,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.913243693001065</v>
+        <v>-1.948686313519683</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -867,7 +845,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0003325600715838532</v>
+        <v>0.0003394768351965532</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -878,7 +856,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110.5863311071557</v>
+        <v>114.6753482580017</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -889,7 +867,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.99843885708529</v>
+        <v>19.17128191916979</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -900,7 +878,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4731.135739037643</v>
+        <v>4738.965068281464</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -911,42 +889,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1929.877933876312</v>
+        <v>2035.363662833191</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>359.6784574005824</v>
+        <v>1805.541819851196</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1788.032240635625</v>
+        <v>-66.12917916868236</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-69.16384884617258</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -959,7 +926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -991,7 +958,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3001.453690337974</v>
+        <v>-1504.847226627149</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -1002,7 +969,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-53.85516074291399</v>
+        <v>1593.412910738571</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -1013,7 +980,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>957.7317366050761</v>
+        <v>1284.071800912127</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -1024,7 +991,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1147248057858175</v>
+        <v>1.109675878321736</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -1035,7 +1002,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0002896138901541927</v>
+        <v>0.0003736937959880069</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -1046,7 +1013,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>94.70846525034131</v>
+        <v>-33.60259526285085</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -1057,7 +1024,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-46.18106918959225</v>
+        <v>-90.94016986811687</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -1068,7 +1035,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1337.813266560759</v>
+        <v>-8703.023151590489</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -1079,42 +1046,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3260.860735899689</v>
+        <v>-4744.508197203941</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6402.185987784178</v>
+        <v>-14662.85026892589</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-3570.767080489612</v>
+        <v>209.7677355875867</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>5.900104869782894</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1127,7 +1083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1159,7 +1115,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2980.116539791263</v>
+        <v>3046.477136688158</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -1170,7 +1126,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-273.7698985100456</v>
+        <v>-254.0511750718492</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -1181,7 +1137,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>589.3267314988168</v>
+        <v>613.7443970462723</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -1192,7 +1148,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1856093418177465</v>
+        <v>-0.1475130570324947</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -1203,7 +1159,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001483846161971141</v>
+        <v>0.0001417775343751783</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -1214,7 +1170,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95.05204540846148</v>
+        <v>89.75542415515713</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -1225,7 +1181,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-33.24130463166483</v>
+        <v>-32.14569973458015</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -1236,7 +1192,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-665.2998265155984</v>
+        <v>-603.492843144777</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -1247,42 +1203,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1624.112074720466</v>
+        <v>-1721.887097523721</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-585.9996132912111</v>
+        <v>-536.0667673316107</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-496.5454397292847</v>
+        <v>20.92107833026273</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>25.60810314470802</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1295,7 +1240,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1327,7 +1272,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2396.094672965097</v>
+        <v>4920.744704131179</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -1338,7 +1283,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-410.3772054721553</v>
+        <v>-181.3313144965314</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -1349,7 +1294,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1556.266977469914</v>
+        <v>2016.033643749437</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -1360,7 +1305,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7227079448599989</v>
+        <v>-1.193564781986594</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -1371,7 +1316,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.00101015871867368</v>
+        <v>0.001645887655883472</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -1382,7 +1327,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>304.0264310312368</v>
+        <v>429.9609183633106</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -1393,7 +1338,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8.988566555774185</v>
+        <v>-1.829682350009847</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -1404,7 +1349,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5991.001430076367</v>
+        <v>-8387.670924508744</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -1415,42 +1360,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3218.814210975121</v>
+        <v>-5967.410153033499</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6194.991042539634</v>
+        <v>-5955.422179239427</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-3649.000595871228</v>
+        <v>-437.4997734557978</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-246.8507014582824</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1463,7 +1397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1495,7 +1429,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1312.451951718646</v>
+        <v>1392.559874865631</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -1506,7 +1440,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>332.9956999236188</v>
+        <v>240.0187672624215</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -1517,7 +1451,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>309.5716209045567</v>
+        <v>287.3143217764028</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -1528,7 +1462,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3633154932582232</v>
+        <v>-0.3029791336091865</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -1539,7 +1473,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0002028910315378903</v>
+        <v>0.000167193136363937</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -1550,7 +1484,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>91.03520988655032</v>
+        <v>80.4121972046529</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -1561,7 +1495,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.969483319390402</v>
+        <v>-4.25666992991053</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -1572,7 +1506,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2533.806593533282</v>
+        <v>-2727.610935188491</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -1583,42 +1517,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1311.730297236032</v>
+        <v>-1120.728244098307</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>715.7417549767051</v>
+        <v>1784.942339876608</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>123.7141773128151</v>
+        <v>-2.578914646367934</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-9.995899971907761</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1631,7 +1554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1663,7 +1586,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4592.319328430409</v>
+        <v>6082.018787707406</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -1674,7 +1597,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-328.5611322760049</v>
+        <v>-337.9576888574984</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -1685,7 +1608,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>654.9229707459949</v>
+        <v>419.8087165784536</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -1696,7 +1619,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5057197671718425</v>
+        <v>-0.655452571846276</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -1707,7 +1630,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.000324904365365114</v>
+        <v>0.000382839501157035</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -1718,7 +1641,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>122.1166703202493</v>
+        <v>133.5149160380013</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -1729,7 +1652,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-30.70134120575705</v>
+        <v>-37.56688907216937</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -1740,7 +1663,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2270.461630272985</v>
+        <v>-3045.230338791183</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -1751,42 +1674,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2676.099495323804</v>
+        <v>3422.964830330355</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4612.529780365268</v>
+        <v>-7704.289964695963</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-5855.368529231902</v>
+        <v>-18.18500608947602</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-29.60139749520943</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1799,7 +1711,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1831,7 +1743,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8503.006930476888</v>
+        <v>9628.22841275266</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -1842,7 +1754,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-9.35405030484776</v>
+        <v>171.0066324880295</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -1853,7 +1765,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>266.8576006601643</v>
+        <v>199.1292810488795</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -1864,7 +1776,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5895858448778535</v>
+        <v>-0.6969725453540399</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -1875,7 +1787,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.24541748734853e-05</v>
+        <v>8.102036132450038e-05</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -1886,7 +1798,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>75.34478693114201</v>
+        <v>76.61479529520304</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -1897,7 +1809,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.954063490184112</v>
+        <v>-5.57072337195045</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -1908,7 +1820,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4897.552617181244</v>
+        <v>-5245.467026563352</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -1919,42 +1831,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1310.112356867804</v>
+        <v>-1546.516450315188</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3476.497731315331</v>
+        <v>2149.282051796955</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1869.659067878417</v>
+        <v>-100.97298463222</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-82.72412426846449</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1967,7 +1868,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1999,7 +1900,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2618.577015692907</v>
+        <v>2592.549490690606</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -2010,7 +1911,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-57.82197602506403</v>
+        <v>-67.62381019227269</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -2021,7 +1922,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>404.5535542164138</v>
+        <v>347.8206299235808</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -2032,7 +1933,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2180927266468715</v>
+        <v>0.1241721049558162</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -2043,7 +1944,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.640439013518471e-05</v>
+        <v>4.827566035152148e-05</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -2054,7 +1955,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39.43597605643541</v>
+        <v>38.17356934460497</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -2065,7 +1966,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8.71151210788156</v>
+        <v>-8.778591281692286</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -2076,7 +1977,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4735.710894508463</v>
+        <v>-4361.063374782148</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -2087,42 +1988,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1191.246055221771</v>
+        <v>-818.2187390786603</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>907.4639335926549</v>
+        <v>3638.801447790203</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2240.73128072382</v>
+        <v>0.0280687172868852</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-5.469720981481771</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2135,7 +2025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2167,7 +2057,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2106.321535109155</v>
+        <v>2313.849322625108</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -2178,7 +2068,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-217.4940776472286</v>
+        <v>-161.1678437198416</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -2189,7 +2079,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.9556947162146</v>
+        <v>407.1930991802301</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -2200,7 +2090,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3317816612094644</v>
+        <v>0.4517583455933778</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -2211,7 +2101,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.910498256469799e-05</v>
+        <v>-0.0001241899582371461</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -2222,7 +2112,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.024163751391143</v>
+        <v>-15.29104117990278</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -2233,7 +2123,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.046252312207443</v>
+        <v>10.27908624367392</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -2244,7 +2134,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2140.847516080574</v>
+        <v>-2483.902262674801</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -2255,42 +2145,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-4780.687226076814</v>
+        <v>-6143.779626830677</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2887.317466997392</v>
+        <v>-2131.956067184816</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1705.660175924495</v>
+        <v>20.77398114724667</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4.724555683672747</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2303,7 +2182,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2335,7 +2214,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4007.923789955181</v>
+        <v>4237.001053598709</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -2346,7 +2225,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-272.6362138807458</v>
+        <v>-204.0649470628337</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -2357,7 +2236,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>771.3110582409649</v>
+        <v>744.9300690634615</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -2368,7 +2247,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1862687755829833</v>
+        <v>-0.2191497692295745</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -2379,7 +2258,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0003983895387568593</v>
+        <v>0.0004824707445811862</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -2390,7 +2269,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>121.0579254835983</v>
+        <v>132.6025589026348</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -2401,7 +2280,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-25.48434428307687</v>
+        <v>-19.82738406880108</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -2412,7 +2291,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3564.346138311455</v>
+        <v>-4870.965326972306</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -2423,42 +2302,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2430.50036605425</v>
+        <v>-3234.509111248539</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3232.565161791579</v>
+        <v>-3673.745869926614</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2482.907817833555</v>
+        <v>-71.43382755899302</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-51.85792547841766</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2471,7 +2339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2503,7 +2371,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>893.7858017419585</v>
+        <v>-322.3595467149062</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -2514,7 +2382,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-669.2358913650137</v>
+        <v>-702.0290672777082</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -2525,7 +2393,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>541.7633372021833</v>
+        <v>486.9802572498463</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -2536,7 +2404,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2110498823512956</v>
+        <v>-0.242346982718489</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -2547,7 +2415,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0002716582400074307</v>
+        <v>0.0002292638558567227</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -2558,7 +2426,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>93.00239388926059</v>
+        <v>79.66838356552637</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -2569,7 +2437,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-13.79931783583237</v>
+        <v>-16.98428140902124</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -2580,7 +2448,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5497.024912498177</v>
+        <v>-5124.722763588215</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -2591,42 +2459,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3643.582784783724</v>
+        <v>5781.699603151414</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2554.913347347094</v>
+        <v>2825.194358999619</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1753.635800700851</v>
+        <v>52.99230605047251</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>12.63787014727288</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2639,7 +2496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2671,7 +2528,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7894.228982071138</v>
+        <v>8646.839333103584</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -2682,7 +2539,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-111.32757682488</v>
+        <v>-162.7184311414971</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -2693,7 +2550,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>565.747982411669</v>
+        <v>476.081581411122</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -2704,7 +2561,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.364173952888025</v>
+        <v>-0.3196502845786036</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -2715,7 +2572,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001001320154645846</v>
+        <v>4.443289343568206e-05</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -2726,7 +2583,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.05141793170833</v>
+        <v>33.38594020133644</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -2737,7 +2594,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-30.0257816028711</v>
+        <v>-26.98796858287513</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -2748,7 +2605,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-750.0956954729845</v>
+        <v>-1748.570393299864</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -2759,42 +2616,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2043.327918210314</v>
+        <v>1596.883795514048</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2280.239758926632</v>
+        <v>-3903.899186213632</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-4035.915266762277</v>
+        <v>-42.87149846197997</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-44.55966471559998</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2807,7 +2653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2839,7 +2685,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2221.50561902246</v>
+        <v>2373.929539742311</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -2850,7 +2696,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-238.0013713056401</v>
+        <v>-249.2901625379229</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -2861,7 +2707,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>572.8389194607676</v>
+        <v>559.6586589488661</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -2872,7 +2718,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1520344516192094</v>
+        <v>-0.1700644288163691</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -2883,7 +2729,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001484859146045031</v>
+        <v>0.0001420681409736079</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -2894,7 +2740,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>91.86086379453909</v>
+        <v>91.04627582984514</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -2905,7 +2751,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-27.40787968698595</v>
+        <v>-28.7429928866527</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -2916,7 +2762,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-645.9980614970809</v>
+        <v>-642.5809135754935</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -2927,42 +2773,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1280.766962302998</v>
+        <v>-1409.927350941576</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>756.9431731666177</v>
+        <v>1092.206011065615</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1017.567324690975</v>
+        <v>22.99250124822362</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>18.19760348190721</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2975,7 +2810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3007,7 +2842,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2325.595761222474</v>
+        <v>2225.996930316884</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -3018,7 +2853,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>204.3616711266711</v>
+        <v>215.7672883661162</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -3029,7 +2864,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>356.8679971433992</v>
+        <v>349.5780705375936</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -3040,7 +2875,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6643432374385965</v>
+        <v>0.6882332908572959</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -3051,7 +2886,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0005619693059028094</v>
+        <v>-0.0005815066116593229</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -3062,7 +2897,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-192.2724197523003</v>
+        <v>-197.8865860486517</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -3073,7 +2908,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24.89374051811706</v>
+        <v>25.6110730414764</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -3084,7 +2919,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2102.693107910105</v>
+        <v>2235.13360886545</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -3095,42 +2930,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1050.844645168821</v>
+        <v>-1072.593221392975</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>218.414065540499</v>
+        <v>757.6421589351776</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>787.0312825326819</v>
+        <v>76.78682892883012</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>72.67659168440173</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3143,7 +2967,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3175,7 +2999,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>424.9383665755422</v>
+        <v>2592.813494419323</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -3186,7 +3010,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-432.7705209616543</v>
+        <v>176.7146370975206</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -3197,7 +3021,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1110.873095833834</v>
+        <v>1367.786461138123</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -3208,7 +3032,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3755260548900505</v>
+        <v>-0.7754800825002892</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -3219,7 +3043,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0003156780122436083</v>
+        <v>0.0005188845923609652</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -3230,7 +3054,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>170.277306780266</v>
+        <v>230.6893170845594</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -3241,7 +3065,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-13.52012615876454</v>
+        <v>1.28107450303429</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -3252,7 +3076,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2332.788769802504</v>
+        <v>-1087.109810396418</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -3263,42 +3087,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1546.399581519629</v>
+        <v>2159.814126787962</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10561.4567451972</v>
+        <v>-22931.59822176286</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-7115.818339120422</v>
+        <v>-169.6219269208668</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-59.31524994595156</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3311,7 +3124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3343,7 +3156,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1580.430742405291</v>
+        <v>-1847.837090759611</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -3354,7 +3167,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-793.073369365695</v>
+        <v>-871.5275246819784</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -3365,7 +3178,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>606.4966444716871</v>
+        <v>515.8102885725202</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -3376,7 +3189,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.356811150743788</v>
+        <v>-1.577954279213698</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -3387,7 +3200,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0005488706324133807</v>
+        <v>0.0006001318326188266</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -3398,7 +3211,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>241.2877904350092</v>
+        <v>267.1696070361258</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -3409,7 +3222,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-42.08271201364865</v>
+        <v>-48.31844708511889</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -3420,7 +3233,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2299.226255922576</v>
+        <v>-2361.074397457942</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -3431,42 +3244,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4999.8505829645</v>
+        <v>5799.166778666564</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2145.774987416351</v>
+        <v>644.4985987583424</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>597.4818361680464</v>
+        <v>82.99623672179214</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>63.21690854964072</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3479,7 +3281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3511,7 +3313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180.2531960599827</v>
+        <v>206.7461525454655</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -3522,7 +3324,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-410.0866102802834</v>
+        <v>-417.369173350756</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -3533,7 +3335,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.005282635353</v>
+        <v>155.0429429827946</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -3544,7 +3346,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08734374901929876</v>
+        <v>-0.08539778848684199</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -3555,7 +3357,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.498025180979119e-05</v>
+        <v>-6.467069149705316e-05</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -3566,7 +3368,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.7869687791152</v>
+        <v>52.74086235761381</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -3577,7 +3379,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.358993653383408</v>
+        <v>-1.666040671612166</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -3588,7 +3390,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3044.050292753365</v>
+        <v>-3056.245743370593</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -3599,42 +3401,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>871.1802331360932</v>
+        <v>872.2588547876153</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-216.9935630593504</v>
+        <v>88.13017942770375</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>81.86543894628267</v>
+        <v>70.18699223875194</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>70.26496571095402</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3647,7 +3438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3679,7 +3470,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1058.674771493024</v>
+        <v>1192.695161910076</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -3690,7 +3481,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-305.1819979041657</v>
+        <v>-267.987046733424</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -3701,7 +3492,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>775.658340248257</v>
+        <v>677.4349960035952</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -3712,7 +3503,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1818757117062366</v>
+        <v>0.1830937128888599</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -3723,7 +3514,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001742697236599476</v>
+        <v>0.0001479709518502114</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -3734,7 +3525,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97.45217079653931</v>
+        <v>94.24219369429616</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -3745,7 +3536,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-37.43063689063892</v>
+        <v>-31.62323249395173</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -3756,7 +3547,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1310.108189050717</v>
+        <v>-2224.798734771349</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -3767,42 +3558,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3109.5066582097</v>
+        <v>-3711.178368597211</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1776.868798057209</v>
+        <v>-456.7647562281873</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-362.3728693453813</v>
+        <v>42.34952913043523</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>42.4186038839787</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3815,7 +3595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3847,7 +3627,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3320.67038053424</v>
+        <v>3422.248101969792</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -3858,7 +3638,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-72.13445941941427</v>
+        <v>-93.76410051753555</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -3869,7 +3649,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>929.0318760964078</v>
+        <v>942.6073394600041</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -3880,7 +3660,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03679136675265171</v>
+        <v>-0.01427395453988134</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -3891,7 +3671,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0002161619459960201</v>
+        <v>0.0002196307547319004</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -3902,7 +3682,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.9843468546333</v>
+        <v>110.3950093025624</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -3913,7 +3693,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-51.04136226315011</v>
+        <v>-52.40216268519033</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -3924,7 +3704,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>952.4266599400507</v>
+        <v>571.77222908767</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -3935,42 +3715,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2027.775928150313</v>
+        <v>-2320.372698309042</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>844.224979295881</v>
+        <v>1013.04445095044</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>862.1060396259154</v>
+        <v>6.490173628079788</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4.999477804790331</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3983,7 +3752,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4015,7 +3784,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2310.948797859261</v>
+        <v>12469.86190381955</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -4026,7 +3795,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-810.4805471175614</v>
+        <v>-788.2369516602948</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -4037,7 +3806,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.1507885655765</v>
+        <v>-1969.311594636489</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -4048,7 +3817,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0006201416939974891</v>
+        <v>-8.037873176188732</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -4059,7 +3828,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.108991553188076e-05</v>
+        <v>-0.001238597852768636</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -4070,7 +3839,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.51346132065021</v>
+        <v>-582.8046946988234</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -4081,7 +3850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-27.11774036542002</v>
+        <v>-293.4495076341514</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -4092,7 +3861,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3690.94797646289</v>
+        <v>35153.38444250217</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -4103,42 +3872,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5465.155488112359</v>
+        <v>86360.37920834392</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25472.90760522979</v>
+        <v>80450.91541081818</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4314.317314465421</v>
+        <v>992.987663779485</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>30.93643465538332</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4151,7 +3909,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4183,7 +3941,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1536.738637479431</v>
+        <v>1848.060313508171</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -4194,7 +3952,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-606.0103046796225</v>
+        <v>-595.6755285506224</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -4205,7 +3963,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.32106133017146</v>
+        <v>93.23117051693498</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -4216,7 +3974,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5488089751804113</v>
+        <v>-0.6011660935781107</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -4227,7 +3985,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.165787083763585e-05</v>
+        <v>5.641032158212986e-05</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -4238,7 +3996,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74.69949642756575</v>
+        <v>77.60210194698911</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -4249,7 +4007,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-12.06207425374771</v>
+        <v>-11.67119927371259</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -4260,7 +4018,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-938.9132017780248</v>
+        <v>-320.6346891488647</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -4271,42 +4029,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2114.939843550908</v>
+        <v>-1434.366859384931</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3394.484905249141</v>
+        <v>-7233.572630725179</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-3508.14862887225</v>
+        <v>92.63484971576754</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>103.6360275500026</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4319,7 +4066,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4351,7 +4098,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>104.5985209480095</v>
+        <v>687.6624341271418</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -4362,7 +4109,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-600.4790005025197</v>
+        <v>-658.4013083053906</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -4373,7 +4120,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>871.55243946672</v>
+        <v>571.6146753643453</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -4384,7 +4131,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3424283071531407</v>
+        <v>-0.439300938286098</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -4395,7 +4142,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0003569865051898063</v>
+        <v>0.0004756077414100018</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -4406,7 +4153,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>199.3748931637558</v>
+        <v>258.0271179347651</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -4417,7 +4164,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-29.45480582113576</v>
+        <v>-49.00150483294783</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -4428,7 +4175,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4698.234801167837</v>
+        <v>-7860.73846937636</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -4439,42 +4186,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1274.358739532658</v>
+        <v>1321.57125893519</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7697.62718519866</v>
+        <v>-13471.69085308108</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-7675.559652046461</v>
+        <v>49.14517521947641</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-1.265598869288226</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4487,7 +4223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4519,7 +4255,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5002.218814328257</v>
+        <v>10069.54645508002</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -4530,7 +4266,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.99462846489689</v>
+        <v>320.1622053487449</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -4541,7 +4277,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>784.1616240890694</v>
+        <v>425.9972729528349</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -4552,7 +4288,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4419984673114313</v>
+        <v>-0.5801736267249433</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -4563,7 +4299,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0002357962658926551</v>
+        <v>0.0001185184699125768</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -4574,7 +4310,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80.13415199256501</v>
+        <v>3.422859933417953</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -4585,7 +4321,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-39.15637789330572</v>
+        <v>-42.88186444845755</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -4596,7 +4332,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1477.250180391609</v>
+        <v>2548.916807831914</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -4607,42 +4343,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2824.176513398557</v>
+        <v>4399.099947331744</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5628.914045457988</v>
+        <v>1548.348753884994</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>643.6867699081208</v>
+        <v>-55.93471031170793</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-40.58362594827003</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4655,7 +4380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4687,7 +4412,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3780.239790612034</v>
+        <v>3820.26103938583</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -4698,7 +4423,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>894.1540072417538</v>
+        <v>881.7831535256573</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -4709,7 +4434,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>950.8668195554351</v>
+        <v>958.0326139439544</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -4720,7 +4445,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1862626784922359</v>
+        <v>-0.1606599029481099</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -4731,7 +4456,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0003543201826208425</v>
+        <v>0.0003465338622374232</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -4742,7 +4467,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.697927038633452</v>
+        <v>-9.910030039282674</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -4753,7 +4478,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-90.53464857338986</v>
+        <v>-88.00234810359245</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -4764,7 +4489,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1410.470971559971</v>
+        <v>-1445.718969340433</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -4775,42 +4500,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1292.600258350293</v>
+        <v>-1311.705479630753</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-462.1776386569018</v>
+        <v>-699.1246305258865</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-708.6702533861062</v>
+        <v>125.5603289813146</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>132.135082838583</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4823,7 +4537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4855,7 +4569,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7149.875168067711</v>
+        <v>9153.500300985688</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -4866,7 +4580,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-285.025868788863</v>
+        <v>-64.14357371301617</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -4877,7 +4591,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>376.7864134293613</v>
+        <v>304.7762982578702</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -4888,7 +4602,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3430818033541174</v>
+        <v>-0.3340749518522051</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -4899,7 +4613,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001514658028402714</v>
+        <v>0.0002637036648642402</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -4910,7 +4624,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>96.68610981494459</v>
+        <v>137.9608803820523</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -4921,7 +4635,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.479345028518367</v>
+        <v>10.58182470058178</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -4932,7 +4646,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4894.989970266016</v>
+        <v>-6223.885782365833</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -4943,42 +4657,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-4359.972447616688</v>
+        <v>-10468.91531591885</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7115.118599515168</v>
+        <v>-4527.976423054981</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-890.5968387282264</v>
+        <v>-158.093138886856</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-84.73310195124202</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4991,7 +4694,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5023,7 +4726,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>972.3675077129737</v>
+        <v>1295.085764128828</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -5034,7 +4737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.81213713226475</v>
+        <v>-15.1416961803493</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -5045,7 +4748,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>408.2910176199184</v>
+        <v>431.8006325276965</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -5056,7 +4759,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2048476939594428</v>
+        <v>-0.2135882921902499</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -5067,7 +4770,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001688025881501471</v>
+        <v>0.0001816012568217496</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -5078,7 +4781,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61.01326757690879</v>
+        <v>61.70142797060316</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -5089,7 +4792,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-17.04631317459524</v>
+        <v>-16.91476796652108</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -5100,7 +4803,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3466.622302770602</v>
+        <v>-3545.791314386668</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -5111,42 +4814,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1817.885621995512</v>
+        <v>1729.326817111401</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-692.7101840985379</v>
+        <v>1209.943565147319</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1172.638109126356</v>
+        <v>28.87259173308541</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>37.14971831757231</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5159,7 +4851,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5191,7 +4883,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1668.547612471342</v>
+        <v>1707.717043474387</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -5202,7 +4894,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-449.2445580873873</v>
+        <v>-457.1655015047227</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -5213,7 +4905,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>525.2944528024364</v>
+        <v>493.2658944900413</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -5224,7 +4916,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3263316135917007</v>
+        <v>-0.3358739310308021</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -5235,7 +4927,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001254321090904957</v>
+        <v>0.0001163202741252781</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -5246,7 +4938,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>103.2187822583676</v>
+        <v>100.7833037927397</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -5257,7 +4949,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-22.91460368883804</v>
+        <v>-22.1953458914731</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -5268,7 +4960,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1589.571397846113</v>
+        <v>-1620.514741445678</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -5279,42 +4971,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1009.507040094235</v>
+        <v>-1064.471442833834</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>397.7170531061802</v>
+        <v>308.7711155969755</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>303.6063514729158</v>
+        <v>38.39057682756595</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>35.11659070520355</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5327,7 +5008,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5359,7 +5040,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11714.70259371826</v>
+        <v>14842.32038908326</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -5370,7 +5051,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-687.001749136718</v>
+        <v>-698.6257530603559</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -5381,7 +5062,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>262.1249126383075</v>
+        <v>72.57242624404506</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -5392,7 +5073,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3818388934166674</v>
+        <v>-0.3321180927277555</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -5403,7 +5084,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.000194539148905006</v>
+        <v>-0.000326072295703561</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -5414,7 +5095,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-76.77719431046364</v>
+        <v>-137.1903292037812</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -5425,7 +5106,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-33.40652584638121</v>
+        <v>-33.91327910128518</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -5436,7 +5117,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3124.59813013393</v>
+        <v>-3444.30802720323</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -5447,42 +5128,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8586.96395893814</v>
+        <v>10277.62146368493</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8686.725189245917</v>
+        <v>12017.80378990486</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9581.962054792064</v>
+        <v>-46.74181036243755</v>
       </c>
       <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-35.3065779107699</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/outputs/ML_Results/dist_LR/Magdeburg.xlsx
+++ b/outputs/ML_Results/dist_LR/Magdeburg.xlsx
@@ -7,36 +7,36 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ42858302" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ43034502" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ43362110" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ43558219" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ43720325" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ43890944" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ44065315" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ44231412" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ44395309" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ44562648" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ44733656" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ44904594" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ45081570" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ45253951" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ45428063" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ45602576" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ45780097" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ45964106" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ46162215" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ46344136" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ46559080" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ46729074" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ46901548" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ47098530" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ47303944" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ47491424" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ47666656" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ47838393" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ48003824" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ48176359" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ15632826" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ15816023" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ16006147" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ16191484" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ16359685" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ16537067" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ16712861" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ16891746" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ17152035" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ17382721" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ17612276" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ17816360" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ18102973" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ18286468" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ18466096" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ18650907" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ18848732" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ19026703" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ19217839" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ19401868" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ19585631" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ19756108" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ19921007" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ20088873" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ20272756" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ20446058" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ20615672" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ20812286" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ21015387" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ21227888" sheetId="30" state="visible" r:id="rId30"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Magdeburg.xlsx
+++ b/outputs/ML_Results/dist_LR/Magdeburg.xlsx
@@ -7,22 +7,22 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ31810240" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ31937939" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ32115892" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ32296914" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ32443641" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ32605848" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ32751714" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ32886945" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ33028557" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ33152100" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ33279055" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ33399627" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ33529929" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ33662117" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ33797120" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ33931127" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ31510755" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ31589804" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ31672444" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ31742115" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ31821929" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ31889704" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ31973349" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ32056012" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ32122929" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ32212964" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ32290089" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ32356641" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ32444108" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ32522301" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ32595536" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ32675571" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Magdeburg.xlsx
+++ b/outputs/ML_Results/dist_LR/Magdeburg.xlsx
@@ -7,22 +7,22 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ31510755" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ31589804" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ31672444" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ31742115" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ31821929" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ31889704" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ31973349" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ32056012" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ32122929" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ32212964" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ32290089" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ32356641" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ32444108" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ32522301" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ32595536" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ32675571" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ15630037" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ15756935" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ15854280" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ15953796" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ16059309" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ16157843" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ16264350" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ16369376" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ16471744" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ16575906" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ16678410" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ16779790" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ16884312" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ16988326" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ17087835" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ17190349" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,76 +473,108 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1019.63046726701</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.7369589425297403</v>
-      </c>
+        <v>1497.128081180472</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1807.0414227927</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1758477562306477</v>
-      </c>
+        <v>913.4852096686329</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.005755033689419</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3722679202963554</v>
-      </c>
+        <v>984.3052883990345</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-81706.57193791727</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1679028521921049</v>
-      </c>
+        <v>-0.05700730538307885</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25732.55106842803</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1365639058592251</v>
-      </c>
+        <v>0.0003101336621170978</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3198.866331383584</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1670287418112026</v>
-      </c>
+        <v>-102.6897270093936</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1558.049897053024</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>389.0841683161202</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>150.6040673927941</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>201.0637219947927</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -555,7 +587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,76 +619,108 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5355.429185915906</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.7270147833227303</v>
-      </c>
+        <v>4350.323122124682</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-290.5473089928351</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5034242752035045</v>
-      </c>
+        <v>-1179.860823752135</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8479104404452619</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3852953847303944</v>
-      </c>
+        <v>-287.6597203305391</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12199.46261062351</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8614526966821965</v>
-      </c>
+        <v>-0.4043924118052858</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6378.149733883089</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.5100593416447488</v>
-      </c>
+        <v>-0.0003072233264252464</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-156.5380094497164</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8494292728237058</v>
-      </c>
+        <v>-33.78600284685945</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-738.4617011473833</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2870.501489915447</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1331.827451001265</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>212.8838521369794</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -669,7 +733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -701,76 +765,108 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10831.26717983766</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.06334090768663109</v>
-      </c>
+        <v>7043.098767274641</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-210.4461260351044</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3097164748185997</v>
-      </c>
+        <v>-860.3406400212316</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.765627885189247</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1756367875978182</v>
-      </c>
+        <v>316.2904297719942</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-21042.20375679706</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.175181877475282</v>
-      </c>
+        <v>0.6085534539633155</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2071.56391284049</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.4659859482097404</v>
-      </c>
+        <v>-0.0009020544937343034</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-235.5488275057787</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.4451521913636127</v>
-      </c>
+        <v>25.19503270902661</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2071.466581786896</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-4060.747734950892</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-599.1768565434384</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-54.76889554048137</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -783,7 +879,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -815,76 +911,108 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-651.0282034645616</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.7673778364546684</v>
-      </c>
+        <v>1229.999422181788</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>694.1393262289994</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.25038578785655</v>
-      </c>
+        <v>462.3514369334474</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5484351560781633</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.4574024775545957</v>
-      </c>
+        <v>1039.188549793192</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17189.44344152623</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1574609649234818</v>
-      </c>
+        <v>0.08042806515525625</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8093.068180241004</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.3862174673222769</v>
-      </c>
+        <v>7.563635196758617e-05</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.41557795150266</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9398896384159912</v>
-      </c>
+        <v>-38.15195051139671</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6562.524110473492</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1406.671360115182</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3701.251154332313</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>28.99362962601566</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -897,7 +1025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,76 +1057,108 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7214.350950056106</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.4094987803703913</v>
-      </c>
+        <v>1503.840437341059</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-543.3523623400226</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.609342097846199</v>
-      </c>
+        <v>1250.725708479386</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.778099560570713</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.4797979328854884</v>
-      </c>
+        <v>1330.286162502143</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32478.91584152819</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.5237160982395684</v>
-      </c>
+        <v>-0.07589974671527822</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19713.57549509982</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.4810596905779315</v>
-      </c>
+        <v>0.0005527144014479597</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2457.380081975194</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.5525714037347353</v>
-      </c>
+        <v>-137.1052550715577</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-431.2840247055028</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-970.5557476005997</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>810.7115138451154</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>226.5459823850141</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1011,7 +1171,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1043,76 +1203,108 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-4322.438356190802</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2183783441082198</v>
-      </c>
+        <v>1016.820260488576</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>184.3418766576756</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2982606441504295</v>
-      </c>
+        <v>383.5705072495666</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.2304614365214537</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2341913435499436</v>
-      </c>
+        <v>737.5706909741812</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50018.70011674745</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1260235126225615</v>
-      </c>
+        <v>-0.05833399314182752</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3191.299607083867</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2318711247780167</v>
-      </c>
+        <v>-3.299514970641335e-05</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>137.7767384606647</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2038442098761852</v>
-      </c>
+        <v>25.91177483986513</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1687.419953232473</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-878.9769029082245</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>208.4214837694321</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-58.27390468929173</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1125,7 +1317,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1157,76 +1349,108 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2790.033412720304</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2034488015679199</v>
-      </c>
+        <v>251.7294883365478</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>169.8667257173938</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.510942175917326</v>
-      </c>
+        <v>589.8833201257139</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.183339746210511</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.184265660391134</v>
-      </c>
+        <v>468.9753710804438</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>413.2214757713518</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9739827184593031</v>
-      </c>
+        <v>0.09728030795541809</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17095.00444924955</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2246153866998463</v>
-      </c>
+        <v>7.919171089395389e-05</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>670.8601913923844</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2551045765310703</v>
-      </c>
+        <v>-75.52363011792001</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4717.693495090341</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2188.635195186578</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3157.424669719443</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>192.991888577122</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1239,7 +1463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1271,76 +1495,108 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6493.709514594086</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.05843981855022581</v>
-      </c>
+        <v>1202.068753163749</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>178.1965305556107</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2072817640185124</v>
-      </c>
+        <v>-788.4192865447703</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5900437749852925</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0779485114743682</v>
-      </c>
+        <v>71.9709480201775</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2558.079053707545</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.4504119035236591</v>
-      </c>
+        <v>-0.3058970364448383</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>684.9826564103969</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.5008434177248029</v>
-      </c>
+        <v>-0.000119932216858938</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-163.4319156343608</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2444594944457837</v>
-      </c>
+        <v>-11.42238992719034</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1333.724307387601</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1274.243188338614</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>626.9727565024609</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>139.9677631429486</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1353,7 +1609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1385,76 +1641,108 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1606.977417258013</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.6239047331341139</v>
-      </c>
+        <v>3391.858845391047</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>251.2020185807123</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3186708294147536</v>
-      </c>
+        <v>-232.3460776686779</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.3390392051690263</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2247636446887104</v>
-      </c>
+        <v>135.484770318481</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32376.6530908428</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2253160494814915</v>
-      </c>
+        <v>0.1143227656057473</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4597.831441282615</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2868394969788133</v>
-      </c>
+        <v>-0.0003144846169174423</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.5899366602355</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.4485238779887912</v>
-      </c>
+        <v>10.10728495387367</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1074.596051689378</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2558.179225762004</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1176.309327267824</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>21.54487217449815</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1467,7 +1755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1499,76 +1787,108 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2384.142290539181</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3214920249855132</v>
-      </c>
+        <v>7544.946249421311</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-150.0066891242492</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5026812167559481</v>
-      </c>
+        <v>-265.3167003707922</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6063707235315583</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2114761262056971</v>
-      </c>
+        <v>435.5158105460679</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18876.90138215113</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1854267665505163</v>
-      </c>
+        <v>0.2099479239710568</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6204.934422615755</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.238283707352896</v>
-      </c>
+        <v>-9.29777144560971e-05</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80.22032918282775</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.7360590130274245</v>
-      </c>
+        <v>-62.05149668648311</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>554.1232932996405</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2369.08108613953</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3980.326120749705</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>79.51046172732936</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1581,7 +1901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1613,76 +1933,108 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8436.131592267664</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1043394716979567</v>
-      </c>
+        <v>741.4593730422848</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>456.060736365147</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2444095464739212</v>
-      </c>
+        <v>107.2665839319252</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5807923324232469</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1762756289901661</v>
-      </c>
+        <v>558.8846941246011</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-56713.36756560078</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3378321409676567</v>
-      </c>
+        <v>0.2151754607216527</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15568.79551625066</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.4468785651475014</v>
-      </c>
+        <v>1.815904750184904e-05</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1614.757853976287</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3430779123940036</v>
-      </c>
+        <v>-28.47231164509151</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2046.202449490493</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-3609.112824148833</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1176.455593149748</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>115.4667280145503</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1695,7 +2047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1727,76 +2079,108 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3645.102816704001</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.5123953721787361</v>
-      </c>
+        <v>-306.1591311015509</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>341.9462025432915</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.6370370404561541</v>
-      </c>
+        <v>1051.815548259936</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5044311477765362</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.6505877897840155</v>
-      </c>
+        <v>1565.23933385896</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12101.24659944979</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.4804055866862104</v>
-      </c>
+        <v>-0.2546070522407162</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>999.6669082339686</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9002998141784189</v>
-      </c>
+        <v>0.0008284876350529683</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-279.1035302864905</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.779871103453644</v>
-      </c>
+        <v>19.23936850803014</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-359.1595791105919</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>520.9934535485299</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>42.66519907748443</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-141.0029903422324</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1809,7 +2193,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1841,76 +2225,108 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9209.680127418047</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.291412608897661</v>
-      </c>
+        <v>108.8796111366901</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-256.252062336088</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3824631648345901</v>
-      </c>
+        <v>-217.4887850246514</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05381273322839686</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9229486643355547</v>
-      </c>
+        <v>-626.3666106944868</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-13171.85261095941</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.6990135068325343</v>
-      </c>
+        <v>-0.2176120711348002</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5313.167161447804</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.6349455446384997</v>
-      </c>
+        <v>-0.0001135711171956095</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-254.9660863405707</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.5288017640617499</v>
-      </c>
+        <v>31.92600667067464</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-34.25583528384959</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>35.28807164181489</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>18.9396721206399</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>76.0831720070951</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1923,7 +2339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1955,76 +2371,108 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2809.586299181514</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2107457959526186</v>
-      </c>
+        <v>1834.987868299377</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>201.8135922635117</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.4222491884336101</v>
-      </c>
+        <v>1331.416847760132</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5264251987666451</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2329811309820824</v>
-      </c>
+        <v>1266.786997014877</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15810.46361543128</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1277465426879937</v>
-      </c>
+        <v>-0.1748694465660063</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3132.623352804803</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.3304797951456343</v>
-      </c>
+        <v>0.000486094407511553</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-176.9188655933228</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.5773386026626041</v>
-      </c>
+        <v>-124.6347125503956</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-151.9771777221249</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1372.331730483675</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>582.3258029226877</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>203.0783773634666</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2037,7 +2485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2069,76 +2517,108 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5968.83166158956</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.114273556987998</v>
-      </c>
+        <v>435.4503373884581</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>449.398453079752</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1709728769999652</v>
-      </c>
+        <v>-1406.51135666273</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5290372802797327</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3766860107470993</v>
-      </c>
+        <v>885.4239566246074</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-23776.44062026154</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1140880023156106</v>
-      </c>
+        <v>0.9365782923348562</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2157.000317224924</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.621432690555865</v>
-      </c>
+        <v>1.686901158728243e-06</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1167.153628735589</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2010127687765392</v>
-      </c>
+        <v>-47.2233018869558</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>494.5382796271006</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-294.1918126181517</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>171.012405807789</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>104.355106317317</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2151,7 +2631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2183,76 +2663,108 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2265.284328654536</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3410565925702129</v>
-      </c>
+        <v>866.4012291685908</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>707.878150484853</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1347280611551502</v>
-      </c>
+        <v>365.4841718315301</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1364699625752435</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.7487725564936508</v>
-      </c>
+        <v>861.765062805669</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>459.9843028652685</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9587206910095306</v>
-      </c>
+        <v>0.1665291173980092</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5391.805040514031</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.4457750470142468</v>
-      </c>
+        <v>-4.426724025651083e-05</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>658.1078962317291</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2806052193460234</v>
-      </c>
+        <v>-26.39038033874732</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2939.240392645945</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-605.2318566245226</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1038.825160082342</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>62.52505424853373</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/outputs/ML_Results/dist_LR/Magdeburg.xlsx
+++ b/outputs/ML_Results/dist_LR/Magdeburg.xlsx
@@ -7,22 +7,22 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ15630037" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ15756935" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ15854280" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ15953796" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ16059309" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ16157843" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ16264350" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ16369376" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ16471744" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ16575906" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ16678410" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ16779790" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ16884312" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ16988326" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ17087835" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ17190349" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ00639888" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ00731130" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ00817641" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ00906655" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ00995476" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ01085480" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ01171988" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ01258933" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ01347446" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ01435188" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ01522696" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ01613202" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ01700711" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ01789217" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ01876225" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ01966017" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1497.128081180472</v>
+        <v>-5.298537822659711</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>913.4852096686329</v>
+        <v>-180.4427785809171</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>984.3052883990345</v>
+        <v>374.0211309922239</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05700730538307885</v>
+        <v>-27.53384250283693</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0003101336621170978</v>
+        <v>37.86149665076027</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-102.6897270093936</v>
+        <v>-80.05892926866409</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -539,42 +539,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1558.049897053024</v>
+        <v>-24.71508348881491</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>389.0841683161202</v>
+        <v>172.2444700964362</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.6040673927941</v>
+        <v>242.9630287414954</v>
       </c>
       <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>201.0637219947927</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -587,7 +576,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,7 +608,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4350.323122124682</v>
+        <v>2.21480300446407</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -630,7 +619,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1179.860823752135</v>
+        <v>-260.4396015771994</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -641,7 +630,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-287.6597203305391</v>
+        <v>-287.7919368932203</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -652,7 +641,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4043924118052858</v>
+        <v>122.8622393907799</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -663,7 +652,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0003072233264252464</v>
+        <v>265.7571327014712</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -674,7 +663,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-33.78600284685945</v>
+        <v>51.50048429078774</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -685,42 +674,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-738.4617011473833</v>
+        <v>-173.1302766433438</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2870.501489915447</v>
+        <v>133.9341232272808</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1331.827451001265</v>
+        <v>-71.51466965092541</v>
       </c>
       <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>212.8838521369794</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -733,7 +711,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,7 +743,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7043.098767274641</v>
+        <v>1373.459759096696</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -776,7 +754,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-860.3406400212316</v>
+        <v>2008.179238864212</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -787,7 +765,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>316.2904297719942</v>
+        <v>1199.533845059332</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -798,7 +776,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6085534539633155</v>
+        <v>174.3708352629996</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -809,7 +787,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0009020544937343034</v>
+        <v>1831.48328103683</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -820,7 +798,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25.19503270902661</v>
+        <v>-77.5662339146679</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -831,42 +809,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2071.466581786896</v>
+        <v>-290.9334400259021</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4060.747734950892</v>
+        <v>-50.06463841053269</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-599.1768565434384</v>
+        <v>0.5461653057452622</v>
       </c>
       <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-54.76889554048137</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -879,7 +846,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -911,7 +878,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1229.999422181788</v>
+        <v>-17.26168817858459</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -922,7 +889,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>462.3514369334474</v>
+        <v>208.6911476594801</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -933,7 +900,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1039.188549793192</v>
+        <v>5.725623322621317</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -944,7 +911,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08042806515525625</v>
+        <v>-25.33213956954594</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -955,7 +922,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.563635196758617e-05</v>
+        <v>-83.77502409269675</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -966,7 +933,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-38.15195051139671</v>
+        <v>20.97905095564724</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -977,42 +944,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6562.524110473492</v>
+        <v>-4.487757121015534</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1406.671360115182</v>
+        <v>174.0443843999154</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3701.251154332313</v>
+        <v>2.786542208754469</v>
       </c>
       <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>28.99362962601566</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1025,7 +981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1057,7 +1013,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1503.840437341059</v>
+        <v>-96.05035590700822</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -1068,7 +1024,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1250.725708479386</v>
+        <v>1147.057863539249</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -1079,7 +1035,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1330.286162502143</v>
+        <v>455.8684014393575</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -1090,7 +1046,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07589974671527822</v>
+        <v>40.97162001355986</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -1101,7 +1057,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0005527144014479597</v>
+        <v>766.8283408516552</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -1112,7 +1068,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-137.1052550715577</v>
+        <v>4.482716757465397</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -1123,42 +1079,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-431.2840247055028</v>
+        <v>-294.3922753774186</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-970.5557476005997</v>
+        <v>-88.21547334063132</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>810.7115138451154</v>
+        <v>43.70377964179605</v>
       </c>
       <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>226.5459823850141</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1171,7 +1116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1203,7 +1148,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1016.820260488576</v>
+        <v>12.7023284101402</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -1214,7 +1159,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>383.5705072495666</v>
+        <v>-26.49742398988303</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -1225,7 +1170,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>737.5706909741812</v>
+        <v>222.4980796732398</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -1236,7 +1181,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05833399314182752</v>
+        <v>-12.68689882773273</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -1247,7 +1192,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.299514970641335e-05</v>
+        <v>-5.148954746323284</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -1258,7 +1203,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25.91177483986513</v>
+        <v>4.803272209503419</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -1269,42 +1214,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1687.419953232473</v>
+        <v>-11.95798969120987</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-878.9769029082245</v>
+        <v>347.4304745918557</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>208.4214837694321</v>
+        <v>-37.51651331570361</v>
       </c>
       <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-58.27390468929173</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1317,7 +1251,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1349,7 +1283,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>251.7294883365478</v>
+        <v>2.302661435332894</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -1360,7 +1294,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589.8833201257139</v>
+        <v>-59.53963391068977</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -1371,7 +1305,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>468.9753710804438</v>
+        <v>126.1348022820451</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -1382,7 +1316,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09728030795541809</v>
+        <v>15.72443506663215</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -1393,7 +1327,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.919171089395389e-05</v>
+        <v>-41.82043092192259</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -1404,7 +1338,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-75.52363011792001</v>
+        <v>-34.41132609085739</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -1415,42 +1349,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4717.693495090341</v>
+        <v>-16.3172822240324</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2188.635195186578</v>
+        <v>143.5846554722506</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3157.424669719443</v>
+        <v>131.1620471247755</v>
       </c>
       <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>192.991888577122</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1463,7 +1386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1495,7 +1418,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1202.068753163749</v>
+        <v>66.91154225261148</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -1506,7 +1429,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-788.4192865447703</v>
+        <v>-547.5540553038156</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -1517,7 +1440,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>71.9709480201775</v>
+        <v>512.726579926873</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -1528,7 +1451,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3058970364448383</v>
+        <v>5.267730383574218</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -1539,7 +1462,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.000119932216858938</v>
+        <v>48.68316287234109</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -1550,7 +1473,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.42238992719034</v>
+        <v>-9.727524035362023</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -1561,42 +1484,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1333.724307387601</v>
+        <v>-34.73428042418426</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1274.243188338614</v>
+        <v>158.899797710933</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>626.9727565024609</v>
+        <v>56.80387636877367</v>
       </c>
       <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>139.9677631429486</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1609,7 +1521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1641,7 +1553,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3391.858845391047</v>
+        <v>7.389948162521339</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -1652,7 +1564,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-232.3460776686779</v>
+        <v>25.48155765306683</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -1663,7 +1575,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135.484770318481</v>
+        <v>146.3756012739964</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -1674,7 +1586,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1143227656057473</v>
+        <v>-4.482362206340795</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -1685,7 +1597,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0003144846169174423</v>
+        <v>-259.5155030059668</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -1696,7 +1608,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.10728495387367</v>
+        <v>9.719550362015177</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -1707,42 +1619,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1074.596051689378</v>
+        <v>4.070520661422876</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2558.179225762004</v>
+        <v>179.0203222115342</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1176.309327267824</v>
+        <v>17.12267731860595</v>
       </c>
       <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>21.54487217449815</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1755,7 +1656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1787,7 +1688,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7544.946249421311</v>
+        <v>10.17572974187632</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -1798,7 +1699,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-265.3167003707922</v>
+        <v>36.23806430146101</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -1809,7 +1710,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>435.5158105460679</v>
+        <v>69.49976241772049</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -1820,7 +1721,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2099479239710568</v>
+        <v>4.480140774710051</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -1831,7 +1732,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.29777144560971e-05</v>
+        <v>-297.7475645722504</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -1842,7 +1743,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-62.05149668648311</v>
+        <v>-13.61939481573252</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -1853,42 +1754,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>554.1232932996405</v>
+        <v>30.91020423538342</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2369.08108613953</v>
+        <v>193.8103932864326</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3980.326120749705</v>
+        <v>64.26119248926719</v>
       </c>
       <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>79.51046172732936</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1901,7 +1791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1933,7 +1823,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>741.4593730422848</v>
+        <v>16.16887171553983</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -1944,7 +1834,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>107.2665839319252</v>
+        <v>-121.1536571400732</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -1955,7 +1845,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>558.8846941246011</v>
+        <v>317.9829585905956</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -1966,7 +1856,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2151754607216527</v>
+        <v>34.96804244720039</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -1977,7 +1867,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.815904750184904e-05</v>
+        <v>-203.9498172553326</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -1988,7 +1878,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-28.47231164509151</v>
+        <v>16.07216764161825</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -1999,42 +1889,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2046.202449490493</v>
+        <v>-26.28834451185726</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3609.112824148833</v>
+        <v>-118.321833361318</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1176.455593149748</v>
+        <v>78.24122401553024</v>
       </c>
       <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>115.4667280145503</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2047,7 +1926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2079,7 +1958,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-306.1591311015509</v>
+        <v>11.03701113706198</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -2090,7 +1969,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1051.815548259936</v>
+        <v>-449.8020344105576</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -2101,7 +1980,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1565.23933385896</v>
+        <v>873.0384029006418</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -2112,7 +1991,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2546070522407162</v>
+        <v>86.528901210296</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -2123,7 +2002,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0008284876350529683</v>
+        <v>121.8661394935399</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -2134,7 +2013,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.23936850803014</v>
+        <v>-15.64315752225758</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -2145,42 +2024,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-359.1595791105919</v>
+        <v>-80.65887893473848</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>520.9934535485299</v>
+        <v>67.78459816341945</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42.66519907748443</v>
+        <v>23.71971537669236</v>
       </c>
       <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-141.0029903422324</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2193,7 +2061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2225,7 +2093,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>108.8796111366901</v>
+        <v>30.83391277188122</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -2236,7 +2104,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-217.4887850246514</v>
+        <v>136.1774803469143</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -2247,7 +2115,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-626.3666106944868</v>
+        <v>-446.2749843690392</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -2258,7 +2126,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2176120711348002</v>
+        <v>-26.69503512618202</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -2269,7 +2137,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001135711171956095</v>
+        <v>41.50199934591086</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -2280,7 +2148,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31.92600667067464</v>
+        <v>2.86543450187645</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -2291,42 +2159,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-34.25583528384959</v>
+        <v>33.43151748694991</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>35.28807164181489</v>
+        <v>167.9318903315186</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.9396721206399</v>
+        <v>54.91651263761474</v>
       </c>
       <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>76.0831720070951</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2339,7 +2196,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2371,7 +2228,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1834.987868299377</v>
+        <v>8.012236258043515</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -2382,7 +2239,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1331.416847760132</v>
+        <v>-129.2237298263722</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -2393,7 +2250,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1266.786997014877</v>
+        <v>149.9711321265706</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -2404,7 +2261,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1748694465660063</v>
+        <v>16.20844965313552</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -2415,7 +2272,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.000486094407511553</v>
+        <v>50.4316350233803</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -2426,7 +2283,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-124.6347125503956</v>
+        <v>15.70593693436912</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -2437,42 +2294,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-151.9771777221249</v>
+        <v>-44.72759762566841</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1372.331730483675</v>
+        <v>143.1331846454386</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>582.3258029226877</v>
+        <v>7.003806097701528</v>
       </c>
       <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>203.0783773634666</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2485,7 +2331,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2517,7 +2363,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>435.4503373884581</v>
+        <v>69.63989925904448</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -2528,7 +2374,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1406.51135666273</v>
+        <v>-967.5419298869188</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -2539,7 +2385,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>885.4239566246074</v>
+        <v>-65.60257507042797</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -2550,7 +2396,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9365782923348562</v>
+        <v>20.63286432866368</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -2561,7 +2407,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.686901158728243e-06</v>
+        <v>-385.9684342071432</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -2572,7 +2418,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-47.2233018869558</v>
+        <v>-30.10842127571243</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -2583,42 +2429,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>494.5382796271006</v>
+        <v>-113.3377467219112</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-294.1918126181517</v>
+        <v>443.2934271509471</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.012405807789</v>
+        <v>143.2453888361025</v>
       </c>
       <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>104.355106317317</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2631,7 +2466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2663,7 +2498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>866.4012291685908</v>
+        <v>34.34939667794471</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -2674,7 +2509,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>365.4841718315301</v>
+        <v>-129.2174759795407</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -2685,7 +2520,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>861.765062805669</v>
+        <v>822.6646552828392</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -2696,7 +2531,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1665291173980092</v>
+        <v>35.4158661000134</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -2707,7 +2542,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.426724025651083e-05</v>
+        <v>-70.82733342514075</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -2718,7 +2553,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.39038033874732</v>
+        <v>-36.05223849243501</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -2729,42 +2564,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2939.240392645945</v>
+        <v>13.3705308793196</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-605.2318566245226</v>
+        <v>68.23003960072235</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1038.825160082342</v>
+        <v>93.00054464481016</v>
       </c>
       <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>62.52505424853373</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
